--- a/InputFiles/ICDC/TC81_ICDC_STS01_FileFormat-xlsx.xlsx
+++ b/InputFiles/ICDC/TC81_ICDC_STS01_FileFormat-xlsx.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE03D11-86D0-4FCD-AB11-7C5DF60F5F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802F3089-F474-4D39-A391-AC1D7712CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,15 +68,60 @@
   </si>
   <si>
     <t>SELECT
+    DISTINCT c.case_record_id AS "Case ID",
+    st.clinical_study_designation AS "Study Code",
+    st.clinical_study_type AS "Study Type",
+    dmg.breed AS "Breed",
+    diag.disease_term AS "Diagnosis",
+    diag.stage_of_disease AS "Stage Of Disease",
+    CASE 
+        WHEN dmg.patient_age_at_enrollment = CAST(dmg.patient_age_at_enrollment AS INT) 
+        THEN CAST(CAST(dmg.patient_age_at_enrollment AS INT) AS TEXT)
+        ELSE CAST(dmg.patient_age_at_enrollment AS TEXT)
+    END AS "Age", 
+    COALESCE(TRIM(dmg.sex), '') AS "Sex",   
+    COALESCE(dmg.neutered_indicator, '') AS "Neutered Status",  
+    COALESCE(
+         CASE 
+            WHEN dmg.weight = CAST(dmg.weight AS INT) THEN CAST(CAST(ROUND(dmg.weight, 0) AS INT) AS TEXT) 
+            ELSE dmg.weight 
+        END, 
+    '') AS "Weight (kg)",                 
+    COALESCE(diag.best_response, '') AS "Response to Treatment",  
+    COALESCE(coh.cohort_description, '') AS "Cohort"  
+FROM 
+    df_case c
+JOIN 
+    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
+JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
+LEFT JOIN 
+    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+LEFT JOIN
+    df_cohort coh ON c."cohort.cohort_record_id" = coh.cohort_record_id
+WHERE
+    st.clinical_study_designation = 'STS01'  AND sf.file_format = 'xlsx'
+ORDER BY 
+ c.case_record_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT
     COUNT(DISTINCT p.program_acronym) AS "Programs",
     COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
     COUNT(DISTINCT c.case_record_id) AS "Cases",
     COUNT(DISTINCT smp.sample_id) AS "Samples",
    CASE
     when exists (select 1 from df_case_file cf where cf.file_format = 'xlsx') 
-then (select count (cf.file_format) from df_case_file cf where cf.file_format = 'xlsx' )
+then (select count (cf.file_type) from df_case_file cf where cf.file_format = 'xlsx' )
 else 0
-    END AS 'Case Files',               
+    END AS 'Case Files',        
     COUNT(DISTINCT sf.file_name) AS "Study Files" 
 FROM 
     df_program p
@@ -117,23 +163,23 @@
 JOIN 
     df_case c ON smp."case.case_record_id" = c.case_record_id
 JOIN 
+    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
+JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+LEFT JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
+LEFT JOIN 
     df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
+LEFT JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 LEFT JOIN 
     df_case_file cf ON cf."sample.sample_id" = smp.sample_id
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE 
-   st.clinical_study_designation = 'STS01' AND sf.file_format = 'xlsx'
+    st.clinical_study_designation = 'STS01' AND sf.file_format = 'xlsx'
 ORDER BY 
     smp.sample_id ASC
 LIMIT 100;</t>
@@ -216,8 +262,8 @@
 LIMIT 100;</t>
   </si>
   <si>
-    <t>SELECT DISTINCT
-    sf.file_name AS "File Name",
+    <t>SELECT 
+    DISTINCT sf.file_name AS "File Name",
     sf.file_type AS "File Type",
     'study' AS "Association",
     sf.file_description AS "Description",
@@ -234,100 +280,33 @@
         WHEN sf.file_name LIKE '%.tif' THEN 'tif'
         WHEN sf.file_name LIKE '%.xls' THEN 'xls'
         WHEN sf.file_name LIKE '%.xlsx' THEN 'xlsx'
+        WHEN sf.file_name LIKE '%.tsv' THEN 'tsv'
         ELSE 'Unknown'
     END AS "Format",
     CASE     
-    WHEN sf.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN sf.file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(sf.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(sf.file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(sf.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(sf.file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN sf.file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(sf.file_size / 1024.0, 2) = CAST(ROUND(sf.file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(sf.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(sf.file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(sf.file_size, 2) = CAST(ROUND(sf.file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(sf.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(sf.file_size, 2) || ' Bytes'
-        END
-END AS "Size",
+        WHEN sf.file_size &gt;= 1024 * 1024 * 1024 THEN 
+            ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
+        WHEN sf.file_size &gt;= 1024 * 1024 THEN 
+            ROUND(sf.file_size / (1024.0 * 1024.0), 2) || ' MB' 
+        WHEN sf.file_size &gt;= 1024 THEN 
+            ROUND(sf.file_size / 1024.0, 2) || ' KB' 
+        ELSE 
+            ROUND(sf.file_size, 2) || ' Bytes' 
+    END AS "Size",
     st.clinical_study_designation AS "Study Code"
 FROM 
-    df_case_file cf
-JOIN 
-    df_sample smp ON cf."sample.sample_id" = smp.sample_id
+    df_sample smp
 JOIN 
     df_case c ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+    AND sf.file_format = 'xlsx'
 WHERE
-    st.clinical_study_designation = 'STS01' AND sf.file_format = 'xlsx'
+    st.clinical_study_designation = 'STS01'
 ORDER BY 
     sf.file_name ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT
-    DISTINCT c.case_record_id AS "Case ID",
-    st.clinical_study_designation AS "Study Code",
-    st.clinical_study_type AS "Study Type",
-    dmg.breed AS "Breed",
-    diag.disease_term AS "Diagnosis",
-    diag.stage_of_disease AS "Stage Of Disease",
-    CASE 
-    WHEN dmg.patient_age_at_enrollment = CAST(dmg.patient_age_at_enrollment AS INT) 
-    THEN CAST(CAST(dmg.patient_age_at_enrollment AS INT) AS TEXT)
-    ELSE CAST(dmg.patient_age_at_enrollment AS TEXT)
-END AS "Age", 
-    COALESCE(TRIM(dmg.sex), '') AS "Sex",   
-    COALESCE(dmg.neutered_indicator, '') AS "Neutered Status",  
-    COALESCE(
-         CASE 
-            WHEN dmg.weight = CAST(dmg.weight AS INT) THEN CAST(CAST(ROUND(dmg.weight, 0) AS INT) AS TEXT) 
-            ELSE dmg.weight 
-        END, 
-    '') AS "Weight (kg)",        
-    COALESCE(diag.best_response, '') AS "Response to Treatment",  
-    COALESCE(coh.cohort_description, '') AS "Cohort"  
-FROM 
-    df_case c
-JOIN 
-    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_sample smp ON smp."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
- JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN
-   df_cohort coh ON coh.cohort_record_id= c."cohort.cohort_record_id"
-WHERE
-    st.clinical_study_designation = 'STS01' AND sf.file_format = 'xlsx'
-ORDER BY 
-    c.case_record_id ASC
 LIMIT 100;</t>
   </si>
 </sst>
@@ -720,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -771,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -780,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -789,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -801,4 +780,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFC4DBA-834C-4DB6-8430-6FB61E7421A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>